--- a/Core/3.0.0/Electronics/NFC Card Reader Core/BOM_NFCCoreV300.xlsx
+++ b/Core/3.0.0/Electronics/NFC Card Reader Core/BOM_NFCCoreV300.xlsx
@@ -109,7 +109,7 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>C3,C6,C8,C13,C14,C15,C16,C23,C24,C26,C27,C31,C32,C33,C34,C35,C36,C39,C40,C43,C44,C53,C59,C64,C71,C73,C74,C76,C77,C78,C79,C80,C81,C93,C94,C95,C96</t>
+    <t>C3,C6,C8,C13,C14,C15,C16,C23,C24,C26,C27,C31,C32,C33,C34,C35,C36,C39,C40,C43,C44,C53,C59,C64,C71,C73,C74,C76,C77,C78,C79,C80,C81,C93,C94,C95,C96,C97,C98</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB104</t>
@@ -385,7 +385,7 @@
     <t>SRV05-4</t>
   </si>
   <si>
-    <t>D1,D5</t>
+    <t>D1,D5,D9</t>
   </si>
   <si>
     <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BL</t>
@@ -421,7 +421,7 @@
     <t>PTVS3V3S1UR,115</t>
   </si>
   <si>
-    <t>D3,D4</t>
+    <t>D3</t>
   </si>
   <si>
     <t>SOD-123_L2.8-W1.8-LS3.7-RD</t>
@@ -631,7 +631,7 @@
     <t>10kΩ</t>
   </si>
   <si>
-    <t>R1,R2,R19,R20,R21,R22,R25,R26,R27,R28,R30,R35,R37,R40,R48,R49</t>
+    <t>R1,R2,R19,R20,R21,R22,R25,R26,R27,R28,R30,R35,R37,R40,R49</t>
   </si>
   <si>
     <t>R0603</t>
@@ -727,7 +727,7 @@
     <t>4.7kΩ</t>
   </si>
   <si>
-    <t>R15,R16,R17,R18,R23,R24,R50,R51</t>
+    <t>R15,R16,R17,R18,R23,R24,R50,R51,R56</t>
   </si>
   <si>
     <t>0603WAF4701T5E</t>
@@ -973,7 +973,7 @@
     <t>SN74LVC1T45DBVR</t>
   </si>
   <si>
-    <t>U8,U9,U10,U11,U12,U19</t>
+    <t>U8,U9,U10,U11,U12,U19,U20</t>
   </si>
   <si>
     <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BR</t>
@@ -1603,7 +1603,7 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -2147,7 +2147,7 @@
         <v>122</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
         <v>123</v>
@@ -2211,7 +2211,7 @@
         <v>134</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>135</v>
@@ -2595,7 +2595,7 @@
         <v>204</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
         <v>205</v>
@@ -2787,7 +2787,7 @@
         <v>236</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
         <v>237</v>
@@ -3267,7 +3267,7 @@
         <v>318</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>319</v>
